--- a/config_6.22/game_enter_btn_config.xlsx
+++ b/config_6.22/game_enter_btn_config.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="375">
   <si>
     <t>id|行号</t>
   </si>
@@ -1330,15 +1330,18 @@
   <si>
     <t>"act_042_xshb",</t>
   </si>
+  <si>
+    <t>actp_own_task_p_txz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1388,17 +1391,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1422,8 +1419,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,19 +1443,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1469,10 +1474,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1485,8 +1490,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1508,25 +1528,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1579,7 +1582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,13 +1612,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,7 +1654,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,109 +1732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,7 +1744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,15 +1794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1811,6 +1805,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1832,9 +1835,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1857,19 +1862,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,10 +1884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1893,16 +1896,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1911,13 +1914,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1926,104 +1929,104 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3652,11 +3655,11 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G127" sqref="G127"/>
+      <selection pane="bottomRight" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6189,6 +6192,9 @@
       </c>
       <c r="C143">
         <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>374</v>
       </c>
       <c r="E143">
         <v>142</v>
